--- a/Geomorphology/Gavilan/GAVI_notes2.xlsx
+++ b/Geomorphology/Gavilan/GAVI_notes2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Geomorphology\Gavilan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Geomorphology/Gavilan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3C63B8-73BE-49CF-AEAE-D6B7C3C3A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="30" windowWidth="14670" windowHeight="8580" xr2:uid="{1B382DAF-5262-4F1F-A14E-FD43FF218C9E}"/>
+    <workbookView xWindow="29490" yWindow="690" windowWidth="22200" windowHeight="13365" firstSheet="3" activeTab="4" xr2:uid="{1B382DAF-5262-4F1F-A14E-FD43FF218C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="mainstem - July23" sheetId="1" r:id="rId1"/>
@@ -1216,26 +1216,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04CEC78-9A3E-4A1A-90FC-7589486B3D58}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44400</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.50069444444444444</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1277,12 +1277,12 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.5756944444444444</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1532,27 +1532,27 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25.5</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1686,17 +1686,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1887,17 +1887,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19.899999999999999</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2106,25 +2106,25 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2169,12 +2169,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>62</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>70</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>83</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>88</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>89</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>89.1</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>103.4</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>103.5</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>104.3</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>110</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>115</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>117.5</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>120</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>128</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>130</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>137</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>140</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>140</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>150</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>151</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>160</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>170</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>176</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>180</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>180</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>189</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>190</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>191</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>192</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>195</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>204</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>210</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>217</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>218</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>220</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>230</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>240</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>243</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>250</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>260</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>266</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>270</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>274</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>276</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>280</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>281</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>282</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>286</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>289</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>290</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>291</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>292</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>300</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>310</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>320</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>322</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>327</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>330</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>337</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>338.7</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>340</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>350</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>360</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>366</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>369.8</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>370</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>372</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>380</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>390</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>400</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>410</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>417</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>418.8</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>413</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>420</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>424.5</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>430</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>440</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>450</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>451</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>455</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>458</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>459</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>460</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>468</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>470</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>479.5</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>480</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>490</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>500</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>510</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>513</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>517</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>520</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>530</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>540</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>550</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>551</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>560</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>564</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>569</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -4125,26 +4125,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2723992B-EAC5-4B4C-9B4C-34C61BF426FA}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44403</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4170,24 +4170,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32.1</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>69</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>70</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>74.900000000000006</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>87</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>110</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>113</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>130</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>133</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>140</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>147</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>150</v>
       </c>
@@ -4728,17 +4728,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>150</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>160</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>170</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>174</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>180</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>190</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200</v>
       </c>
@@ -4923,37 +4923,37 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I20"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4970,21 +4970,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>29.9</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37.5</v>
       </c>
@@ -5184,29 +5184,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80F2D30-1CBD-4EB0-916C-E3CB4C32E0AA}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44405</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5232,21 +5232,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.5</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.9</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>27</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32.5</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>37</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>40</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>65</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>68</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>79</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>83</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>86.8</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>98</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>206</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>100.1</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>160</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>170</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>180</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>190</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>210</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>220</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>230</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>240</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>245.8</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>235</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>211</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>236</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>213</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -5978,38 +5978,38 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -6035,16 +6035,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21.9</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>34</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41.7</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>42.5</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50.5</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>60</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>70</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>80</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>100</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>100.1</v>
       </c>
@@ -6451,35 +6451,35 @@
       <selection activeCell="F48" sqref="F48:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -6505,13 +6505,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>60</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90.1</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>92</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>105</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>110</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>130</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>140</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>150</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>160</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>170</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>172</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>174</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>175</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>177</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>180</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>182</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>184</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>191</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>210</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>208</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>214</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>220</v>
       </c>
@@ -7038,35 +7038,35 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28.1</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>70</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>110</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>110.1</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>113.3</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117.4</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>122</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>122.4</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>129.5</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>129.5</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134.80000000000001</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>136.19999999999999</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>150</v>
       </c>
@@ -7516,30 +7516,30 @@
       <selection activeCell="F33" sqref="F33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24.7</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>43.5</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>43.6</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11.4</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17.600000000000001</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21.7</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32.299999999999997</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42.4</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42.5</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>53</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53.1</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>59</v>
       </c>
